--- a/InputData/trans/PTFURfE/Perc Trans Fuel Use Reduction for Elec.xlsx
+++ b/InputData/trans/PTFURfE/Perc Trans Fuel Use Reduction for Elec.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipM\InputData\trans\PTFURfE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/trans/ptfurfe/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E30A22-83EA-EE4F-9FCC-799597549B13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="20115" windowHeight="12075"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="20120" windowHeight="12080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,18 @@
     <sheet name="HDVs, Rail" sheetId="2" r:id="rId3"/>
     <sheet name="PTFURfE" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -180,7 +192,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -251,7 +263,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -270,6 +282,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -365,6 +378,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -400,6 +430,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -575,22 +622,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="72.5703125" customWidth="1"/>
+    <col min="2" max="2" width="72.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="12">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,113 +648,113 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
         <v>2014</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>2007</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -712,19 +762,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="4" width="16.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="1" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
@@ -741,7 +791,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -759,7 +809,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -777,7 +827,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -785,7 +835,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>21</v>
       </c>
@@ -800,20 +850,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="4" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="4" width="23.6640625" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -830,7 +880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -847,7 +897,7 @@
         <v>4245</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -864,7 +914,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -881,7 +931,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -898,7 +948,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -906,7 +956,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -915,7 +965,7 @@
         <v>0.68881036513545346</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>13</v>
       </c>
@@ -931,7 +981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -939,14 +989,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>48</v>
       </c>
@@ -957,7 +1007,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -970,7 +1020,7 @@
         <v>0.68595041322314043</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -983,7 +1033,7 @@
         <v>0.68595041322314043</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -996,7 +1046,7 @@
         <v>0.44713930348258707</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1009,7 +1059,7 @@
         <v>0.44713930348258707</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -1022,7 +1072,7 @@
         <v>0.44713930348258707</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>37</v>
       </c>

--- a/InputData/trans/PTFURfE/Perc Trans Fuel Use Reduction for Elec.xlsx
+++ b/InputData/trans/PTFURfE/Perc Trans Fuel Use Reduction for Elec.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/trans/ptfurfe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/trans/ptfurfe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E30A22-83EA-EE4F-9FCC-799597549B13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B667D61-5803-0542-9C71-9ACC74CD039A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="460" windowWidth="20120" windowHeight="12080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
